--- a/pruebas/horarios2.xlsx
+++ b/pruebas/horarios2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.flores\Documents\Laboratorios PA\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AF787D-F49E-41B9-B973-DF771F54ED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D2649-22C0-41A2-B347-EBDAFD42745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horario_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="81">
   <si>
     <t>Hora Inicio</t>
   </si>
@@ -56,202 +56,217 @@
     <t>08:00</t>
   </si>
   <si>
+    <t>D-PROCEDIMIENTOS BASICOS I - UPE/417</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA TEO - UPO/501</t>
+  </si>
+  <si>
     <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPO/413</t>
   </si>
   <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/523</t>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA PRA - UPO/413</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA PRA - UPE/424</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA TEO - UPO/012</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
+  </si>
+  <si>
+    <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA TEO - UPO/012</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>18:49</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>19:49</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>20:49</t>
+  </si>
+  <si>
+    <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/223</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA PRA - UPE/416</t>
+  </si>
+  <si>
+    <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA PRA - UPE/417</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
+  </si>
+  <si>
+    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA PRA - UPO/415</t>
+  </si>
+  <si>
+    <t>D-PENSAMIENTO CRITICO APLICADO - UPE/121</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA PRA - UPO/-503</t>
+  </si>
+  <si>
+    <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
+  </si>
+  <si>
+    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA TEO - UPO/015</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/224</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA PRA - UPO/414</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA TEO - UPE/318</t>
   </si>
   <si>
     <t>D-PROCEDIMIENTOS BASICOS I - UPE/416</t>
   </si>
   <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/319</t>
-  </si>
-  <si>
-    <t>D-EMBRIOLOGIA PRA - UPO/414</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>11:15</t>
-  </si>
-  <si>
     <t>D-NEUROANATOMIA PRA - UPE/417</t>
   </si>
   <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>12:25</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/517</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>14:35</t>
-  </si>
-  <si>
-    <t>15:35</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA TEO - UPO/015</t>
-  </si>
-  <si>
-    <t>D-EMBRIOLOGIA TEO - UPO/522</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>16:40</t>
-  </si>
-  <si>
-    <t>16:45</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>18:49</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/518</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>19:49</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/505</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>20:49</t>
-  </si>
-  <si>
-    <t>D-PENSAMIENTO CRITICO APLICADO - UPE/119</t>
-  </si>
-  <si>
-    <t>D-PENSAMIENTO CRITICO APLICADO - UPO/219</t>
-  </si>
-  <si>
-    <t>20:50</t>
-  </si>
-  <si>
-    <t>21:49</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/417</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA PRA - UPO/415</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/512</t>
-  </si>
-  <si>
-    <t>D-EMBRIOLOGIA TEO - UPE/318</t>
-  </si>
-  <si>
-    <t>D-EMBRIOLOGIA PRA - UPE/417</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/515</t>
-  </si>
-  <si>
-    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/316</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/523</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/520</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA TEO - UPO/214</t>
+    <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/515</t>
+  </si>
+  <si>
+    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
+  </si>
+  <si>
+    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/505</t>
   </si>
   <si>
     <t>D-PROCEDIMIENTOS BASICOS I - UPE/424</t>
   </si>
   <si>
-    <t>D-EMBRIOLOGIA PRA - UPO/415</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/416</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA TEO - UPO/012</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II TEO - UPO/517</t>
-  </si>
-  <si>
-    <t>D-PENSAMIENTO CRITICO APLICADO - UPO/214</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA PRA - UPO/-503</t>
-  </si>
-  <si>
-    <t>D-PROCEDIMIENTOS BASICOS I - UPO/309</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/516</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/522</t>
-  </si>
-  <si>
-    <t>D-INTERAC EFECT EN SISTEMAS SO - UPE/323</t>
-  </si>
-  <si>
-    <t>D-NEUROANATOMIA PRA - UPO/309</t>
-  </si>
-  <si>
-    <t>D-PROCEDIMIENTOS BASICOS I - UPO/415</t>
-  </si>
-  <si>
-    <t>D-ANATOM CLINIC E IMAGENOL II PRA - UPE/424</t>
+    <t>D-PENSAMIENTO CRITICO APLICADO - UPE/319</t>
+  </si>
+  <si>
+    <t>D-NEUROANATOMIA PRA - UPO/410</t>
+  </si>
+  <si>
+    <t>D-EMBRIOLOGIA TEO - UPO/213</t>
   </si>
   <si>
     <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPO/221</t>
-  </si>
-  <si>
-    <t>D-BIOLOGIA CELULAR Y MOLECULAR - UPE/317</t>
-  </si>
-  <si>
-    <t>D-PENSAMIENTO CRITICO APLICADO - UPE/319</t>
   </si>
 </sst>
 </file>
@@ -272,18 +287,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -313,12 +322,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,20 +631,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,181 +682,181 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -862,19 +869,18 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,182 +917,182 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
+      <c r="E3" t="s">
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1099,20 +1105,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,184 +1153,184 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
+      <c r="G15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1337,20 +1342,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,184 +1391,184 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1583,12 +1588,11 @@
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,183 +1629,183 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
